--- a/Бланк raspil белый.xlsx
+++ b/Бланк raspil белый.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\YSA\Kvartira\kvartira\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9F3A393-9386-45F0-9DBA-82515D61816D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5EFF31B-9D5C-49B3-AC21-87FC700B0908}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" autoFilterDateGrouping="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="51">
   <si>
     <t>Материал</t>
   </si>
@@ -231,7 +231,7 @@
     <t>общее</t>
   </si>
   <si>
-    <t>ДСП Эггер Зелёный лайм U630 ST9,  Белый  матовый гладкий.</t>
+    <t>Белый  матовый гладкий.</t>
   </si>
 </sst>
 </file>
@@ -1019,7 +1019,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -1199,46 +1199,147 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="distributed" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1246,6 +1347,26 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0" hidden="1"/>
@@ -1254,147 +1375,30 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="29" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="distributed" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
       <protection locked="0" hidden="1"/>
     </xf>
   </cellXfs>
@@ -1874,10 +1878,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:U327"/>
+  <dimension ref="A1:U328"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A24" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45:XFD45"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A32" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12:K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" customHeight="1"/>
@@ -1900,16 +1904,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="1" customFormat="1" ht="12" customHeight="1">
-      <c r="B1" s="110"/>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="110"/>
-      <c r="I1" s="110"/>
-      <c r="J1" s="110"/>
-      <c r="K1" s="110"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
       <c r="L1" s="2"/>
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
@@ -2032,21 +2036,21 @@
       <c r="U6" s="3"/>
     </row>
     <row r="7" spans="1:21" s="1" customFormat="1" ht="27.6">
-      <c r="A7" s="111" t="s">
+      <c r="A7" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="111"/>
-      <c r="C7" s="111"/>
-      <c r="D7" s="111"/>
-      <c r="E7" s="111"/>
-      <c r="F7" s="111"/>
-      <c r="G7" s="111"/>
-      <c r="H7" s="111"/>
-      <c r="I7" s="111"/>
-      <c r="J7" s="111"/>
-      <c r="K7" s="111"/>
-      <c r="L7" s="111"/>
-      <c r="M7" s="111"/>
+      <c r="B7" s="75"/>
+      <c r="C7" s="75"/>
+      <c r="D7" s="75"/>
+      <c r="E7" s="75"/>
+      <c r="F7" s="75"/>
+      <c r="G7" s="75"/>
+      <c r="H7" s="75"/>
+      <c r="I7" s="75"/>
+      <c r="J7" s="75"/>
+      <c r="K7" s="75"/>
+      <c r="L7" s="75"/>
+      <c r="M7" s="75"/>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
@@ -2057,21 +2061,21 @@
       <c r="U7" s="3"/>
     </row>
     <row r="8" spans="1:21" s="1" customFormat="1" ht="21">
-      <c r="A8" s="112" t="s">
+      <c r="A8" s="76" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="112"/>
-      <c r="C8" s="112"/>
-      <c r="D8" s="112"/>
-      <c r="E8" s="112"/>
-      <c r="F8" s="112"/>
-      <c r="G8" s="112"/>
-      <c r="H8" s="112"/>
-      <c r="I8" s="112"/>
-      <c r="J8" s="112"/>
-      <c r="K8" s="112"/>
-      <c r="L8" s="112"/>
-      <c r="M8" s="112"/>
+      <c r="B8" s="76"/>
+      <c r="C8" s="76"/>
+      <c r="D8" s="76"/>
+      <c r="E8" s="76"/>
+      <c r="F8" s="76"/>
+      <c r="G8" s="76"/>
+      <c r="H8" s="76"/>
+      <c r="I8" s="76"/>
+      <c r="J8" s="76"/>
+      <c r="K8" s="76"/>
+      <c r="L8" s="76"/>
+      <c r="M8" s="76"/>
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
@@ -2082,16 +2086,16 @@
       <c r="U8" s="3"/>
     </row>
     <row r="9" spans="1:21" s="1" customFormat="1" ht="12" customHeight="1">
-      <c r="B9" s="113"/>
-      <c r="C9" s="113"/>
-      <c r="D9" s="113"/>
-      <c r="E9" s="113"/>
-      <c r="F9" s="113"/>
-      <c r="G9" s="113"/>
-      <c r="H9" s="113"/>
-      <c r="I9" s="113"/>
-      <c r="J9" s="113"/>
-      <c r="K9" s="113"/>
+      <c r="B9" s="77"/>
+      <c r="C9" s="77"/>
+      <c r="D9" s="77"/>
+      <c r="E9" s="77"/>
+      <c r="F9" s="77"/>
+      <c r="G9" s="77"/>
+      <c r="H9" s="77"/>
+      <c r="I9" s="77"/>
+      <c r="J9" s="77"/>
+      <c r="K9" s="77"/>
       <c r="L9" s="2"/>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
@@ -2106,18 +2110,18 @@
     <row r="10" spans="1:21" s="1" customFormat="1" ht="15.9" customHeight="1">
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
-      <c r="D10" s="105" t="s">
+      <c r="D10" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="105"/>
-      <c r="F10" s="105"/>
-      <c r="G10" s="106" t="s">
+      <c r="E10" s="78"/>
+      <c r="F10" s="78"/>
+      <c r="G10" s="79" t="s">
         <v>43</v>
       </c>
-      <c r="H10" s="106"/>
-      <c r="I10" s="106"/>
-      <c r="J10" s="106"/>
-      <c r="K10" s="106"/>
+      <c r="H10" s="79"/>
+      <c r="I10" s="79"/>
+      <c r="J10" s="79"/>
+      <c r="K10" s="79"/>
       <c r="L10" s="2"/>
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
@@ -2132,18 +2136,18 @@
     <row r="11" spans="1:21" s="1" customFormat="1" ht="15.6">
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
-      <c r="D11" s="105" t="s">
+      <c r="D11" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="105"/>
-      <c r="F11" s="105"/>
-      <c r="G11" s="106" t="s">
+      <c r="E11" s="78"/>
+      <c r="F11" s="78"/>
+      <c r="G11" s="79" t="s">
         <v>44</v>
       </c>
-      <c r="H11" s="106"/>
-      <c r="I11" s="106"/>
-      <c r="J11" s="106"/>
-      <c r="K11" s="106"/>
+      <c r="H11" s="79"/>
+      <c r="I11" s="79"/>
+      <c r="J11" s="79"/>
+      <c r="K11" s="79"/>
       <c r="L11" s="2"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
@@ -2158,18 +2162,18 @@
     <row r="12" spans="1:21" s="1" customFormat="1" ht="27.75" customHeight="1">
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
-      <c r="D12" s="107" t="s">
+      <c r="D12" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="107"/>
-      <c r="F12" s="107"/>
-      <c r="G12" s="108" t="s">
+      <c r="E12" s="80"/>
+      <c r="F12" s="80"/>
+      <c r="G12" s="81" t="s">
         <v>50</v>
       </c>
-      <c r="H12" s="108"/>
-      <c r="I12" s="108"/>
-      <c r="J12" s="108"/>
-      <c r="K12" s="108"/>
+      <c r="H12" s="81"/>
+      <c r="I12" s="81"/>
+      <c r="J12" s="81"/>
+      <c r="K12" s="81"/>
       <c r="L12" s="2"/>
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
@@ -2184,18 +2188,18 @@
     <row r="13" spans="1:21" s="1" customFormat="1" ht="15.9" customHeight="1">
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
-      <c r="D13" s="107" t="s">
+      <c r="D13" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="107"/>
-      <c r="F13" s="107"/>
-      <c r="G13" s="109" t="s">
+      <c r="E13" s="80"/>
+      <c r="F13" s="80"/>
+      <c r="G13" s="82" t="s">
         <v>45</v>
       </c>
-      <c r="H13" s="109"/>
-      <c r="I13" s="109"/>
-      <c r="J13" s="109"/>
-      <c r="K13" s="109"/>
+      <c r="H13" s="82"/>
+      <c r="I13" s="82"/>
+      <c r="J13" s="82"/>
+      <c r="K13" s="82"/>
       <c r="L13" s="2"/>
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
@@ -2208,21 +2212,21 @@
       <c r="U13" s="3"/>
     </row>
     <row r="14" spans="1:21" s="1" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A14" s="95" t="s">
+      <c r="A14" s="83" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="95"/>
-      <c r="C14" s="95"/>
-      <c r="D14" s="95"/>
-      <c r="E14" s="95"/>
-      <c r="F14" s="95"/>
-      <c r="G14" s="95"/>
-      <c r="H14" s="95"/>
-      <c r="I14" s="95"/>
-      <c r="J14" s="95"/>
-      <c r="K14" s="95"/>
-      <c r="L14" s="95"/>
-      <c r="M14" s="95"/>
+      <c r="B14" s="83"/>
+      <c r="C14" s="83"/>
+      <c r="D14" s="83"/>
+      <c r="E14" s="83"/>
+      <c r="F14" s="83"/>
+      <c r="G14" s="83"/>
+      <c r="H14" s="83"/>
+      <c r="I14" s="83"/>
+      <c r="J14" s="83"/>
+      <c r="K14" s="83"/>
+      <c r="L14" s="83"/>
+      <c r="M14" s="83"/>
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
       <c r="P14" s="3"/>
@@ -2233,19 +2237,19 @@
       <c r="U14" s="3"/>
     </row>
     <row r="15" spans="1:21" s="1" customFormat="1" ht="90.6" customHeight="1">
-      <c r="A15" s="96"/>
-      <c r="B15" s="96"/>
-      <c r="C15" s="96"/>
-      <c r="D15" s="96"/>
-      <c r="E15" s="96"/>
-      <c r="F15" s="96"/>
-      <c r="G15" s="96"/>
-      <c r="H15" s="96"/>
-      <c r="I15" s="96"/>
-      <c r="J15" s="96"/>
-      <c r="K15" s="96"/>
-      <c r="L15" s="96"/>
-      <c r="M15" s="96"/>
+      <c r="A15" s="84"/>
+      <c r="B15" s="84"/>
+      <c r="C15" s="84"/>
+      <c r="D15" s="84"/>
+      <c r="E15" s="84"/>
+      <c r="F15" s="84"/>
+      <c r="G15" s="84"/>
+      <c r="H15" s="84"/>
+      <c r="I15" s="84"/>
+      <c r="J15" s="84"/>
+      <c r="K15" s="84"/>
+      <c r="L15" s="84"/>
+      <c r="M15" s="84"/>
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
       <c r="P15" s="3"/>
@@ -2334,14 +2338,14 @@
       <c r="K17" s="50"/>
       <c r="L17" s="7"/>
       <c r="M17" s="47"/>
-      <c r="P17" s="97" t="s">
+      <c r="P17" s="85" t="s">
         <v>18</v>
       </c>
-      <c r="Q17" s="98"/>
-      <c r="R17" s="98"/>
-      <c r="S17" s="98"/>
-      <c r="T17" s="98"/>
-      <c r="U17" s="99"/>
+      <c r="Q17" s="86"/>
+      <c r="R17" s="86"/>
+      <c r="S17" s="86"/>
+      <c r="T17" s="86"/>
+      <c r="U17" s="87"/>
     </row>
     <row r="18" spans="1:21" s="6" customFormat="1" ht="15.6">
       <c r="A18" s="7">
@@ -2375,16 +2379,16 @@
       <c r="K18" s="50"/>
       <c r="L18" s="7"/>
       <c r="M18" s="7"/>
-      <c r="P18" s="100" t="s">
+      <c r="P18" s="88" t="s">
         <v>19</v>
       </c>
-      <c r="Q18" s="101"/>
-      <c r="R18" s="102"/>
-      <c r="S18" s="103" t="s">
+      <c r="Q18" s="89"/>
+      <c r="R18" s="90"/>
+      <c r="S18" s="91" t="s">
         <v>20</v>
       </c>
-      <c r="T18" s="101"/>
-      <c r="U18" s="104"/>
+      <c r="T18" s="89"/>
+      <c r="U18" s="92"/>
     </row>
     <row r="19" spans="1:21" s="6" customFormat="1" ht="15.6">
       <c r="A19" s="7">
@@ -2416,16 +2420,16 @@
       <c r="K19" s="50"/>
       <c r="L19" s="7"/>
       <c r="M19" s="7"/>
-      <c r="P19" s="88" t="s">
+      <c r="P19" s="93" t="s">
         <v>39</v>
       </c>
-      <c r="Q19" s="89"/>
-      <c r="R19" s="90"/>
-      <c r="S19" s="91">
+      <c r="Q19" s="94"/>
+      <c r="R19" s="95"/>
+      <c r="S19" s="96">
         <v>1</v>
       </c>
-      <c r="T19" s="92"/>
-      <c r="U19" s="93"/>
+      <c r="T19" s="97"/>
+      <c r="U19" s="98"/>
     </row>
     <row r="20" spans="1:21" s="6" customFormat="1" ht="15.6">
       <c r="A20" s="7">
@@ -2457,16 +2461,16 @@
       <c r="K20" s="50"/>
       <c r="L20" s="7"/>
       <c r="M20" s="7"/>
-      <c r="P20" s="88" t="s">
+      <c r="P20" s="93" t="s">
         <v>21</v>
       </c>
-      <c r="Q20" s="89"/>
-      <c r="R20" s="90"/>
-      <c r="S20" s="91">
+      <c r="Q20" s="94"/>
+      <c r="R20" s="95"/>
+      <c r="S20" s="96">
         <v>2</v>
       </c>
-      <c r="T20" s="92"/>
-      <c r="U20" s="93"/>
+      <c r="T20" s="97"/>
+      <c r="U20" s="98"/>
     </row>
     <row r="21" spans="1:21" s="6" customFormat="1" ht="15.6">
       <c r="A21" s="7">
@@ -2498,18 +2502,18 @@
       <c r="K21" s="50"/>
       <c r="L21" s="7"/>
       <c r="M21" s="7"/>
-      <c r="P21" s="88" t="s">
+      <c r="P21" s="93" t="s">
         <v>22</v>
       </c>
-      <c r="Q21" s="89" t="s">
+      <c r="Q21" s="94" t="s">
         <v>23</v>
       </c>
-      <c r="R21" s="90"/>
-      <c r="S21" s="91">
+      <c r="R21" s="95"/>
+      <c r="S21" s="96">
         <v>0.6</v>
       </c>
-      <c r="T21" s="92"/>
-      <c r="U21" s="93"/>
+      <c r="T21" s="97"/>
+      <c r="U21" s="98"/>
     </row>
     <row r="22" spans="1:21" s="6" customFormat="1" ht="15.6">
       <c r="A22" s="7">
@@ -2543,16 +2547,16 @@
       <c r="K22" s="50"/>
       <c r="L22" s="7"/>
       <c r="M22" s="7"/>
-      <c r="P22" s="88" t="s">
+      <c r="P22" s="93" t="s">
         <v>40</v>
       </c>
-      <c r="Q22" s="89"/>
-      <c r="R22" s="90"/>
-      <c r="S22" s="91" t="s">
+      <c r="Q22" s="94"/>
+      <c r="R22" s="95"/>
+      <c r="S22" s="96" t="s">
         <v>41</v>
       </c>
-      <c r="T22" s="92"/>
-      <c r="U22" s="93"/>
+      <c r="T22" s="97"/>
+      <c r="U22" s="98"/>
     </row>
     <row r="23" spans="1:21" s="6" customFormat="1" ht="15.6">
       <c r="A23" s="7">
@@ -2602,7 +2606,7 @@
         <v>18</v>
       </c>
       <c r="D24" s="50">
-        <v>494</v>
+        <v>512</v>
       </c>
       <c r="E24" s="50">
         <v>500</v>
@@ -2621,16 +2625,16 @@
       <c r="K24" s="50"/>
       <c r="L24" s="7"/>
       <c r="M24" s="7"/>
-      <c r="P24" s="83" t="s">
+      <c r="P24" s="99" t="s">
         <v>24</v>
       </c>
-      <c r="Q24" s="84"/>
-      <c r="R24" s="84"/>
-      <c r="S24" s="85" t="s">
+      <c r="Q24" s="100"/>
+      <c r="R24" s="100"/>
+      <c r="S24" s="101" t="s">
         <v>25</v>
       </c>
-      <c r="T24" s="86"/>
-      <c r="U24" s="87"/>
+      <c r="T24" s="102"/>
+      <c r="U24" s="103"/>
     </row>
     <row r="25" spans="1:21" s="6" customFormat="1" ht="15.6">
       <c r="A25" s="7">
@@ -2699,14 +2703,14 @@
       <c r="K26" s="50"/>
       <c r="L26" s="7"/>
       <c r="M26" s="7"/>
-      <c r="P26" s="94" t="s">
+      <c r="P26" s="104" t="s">
         <v>26</v>
       </c>
-      <c r="Q26" s="94"/>
-      <c r="R26" s="94"/>
-      <c r="S26" s="94"/>
-      <c r="T26" s="94"/>
-      <c r="U26" s="94"/>
+      <c r="Q26" s="104"/>
+      <c r="R26" s="104"/>
+      <c r="S26" s="104"/>
+      <c r="T26" s="104"/>
+      <c r="U26" s="104"/>
     </row>
     <row r="27" spans="1:21" s="6" customFormat="1" ht="15.6">
       <c r="A27" s="7">
@@ -2738,12 +2742,12 @@
       <c r="K27" s="50"/>
       <c r="L27" s="7"/>
       <c r="M27" s="7"/>
-      <c r="P27" s="94"/>
-      <c r="Q27" s="94"/>
-      <c r="R27" s="94"/>
-      <c r="S27" s="94"/>
-      <c r="T27" s="94"/>
-      <c r="U27" s="94"/>
+      <c r="P27" s="104"/>
+      <c r="Q27" s="104"/>
+      <c r="R27" s="104"/>
+      <c r="S27" s="104"/>
+      <c r="T27" s="104"/>
+      <c r="U27" s="104"/>
     </row>
     <row r="28" spans="1:21" s="6" customFormat="1" ht="42" customHeight="1">
       <c r="A28" s="7">
@@ -2755,19 +2759,19 @@
       <c r="C28" s="7">
         <v>18</v>
       </c>
-      <c r="D28" s="117">
-        <v>540</v>
-      </c>
-      <c r="E28" s="117">
+      <c r="D28" s="70">
+        <v>538</v>
+      </c>
+      <c r="E28" s="70">
         <v>140</v>
       </c>
-      <c r="F28" s="117">
+      <c r="F28" s="70">
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="H28" s="117">
+      <c r="H28" s="70">
         <v>1</v>
       </c>
       <c r="I28" s="50"/>
@@ -2775,12 +2779,12 @@
       <c r="K28" s="50"/>
       <c r="L28" s="7"/>
       <c r="M28" s="7"/>
-      <c r="P28" s="94"/>
-      <c r="Q28" s="94"/>
-      <c r="R28" s="94"/>
-      <c r="S28" s="94"/>
-      <c r="T28" s="94"/>
-      <c r="U28" s="94"/>
+      <c r="P28" s="104"/>
+      <c r="Q28" s="104"/>
+      <c r="R28" s="104"/>
+      <c r="S28" s="104"/>
+      <c r="T28" s="104"/>
+      <c r="U28" s="104"/>
     </row>
     <row r="29" spans="1:21" s="6" customFormat="1" ht="15.6">
       <c r="A29" s="7">
@@ -2812,12 +2816,12 @@
       <c r="K29" s="50"/>
       <c r="L29" s="7"/>
       <c r="M29" s="7"/>
-      <c r="P29" s="94"/>
-      <c r="Q29" s="94"/>
-      <c r="R29" s="94"/>
-      <c r="S29" s="94"/>
-      <c r="T29" s="94"/>
-      <c r="U29" s="94"/>
+      <c r="P29" s="104"/>
+      <c r="Q29" s="104"/>
+      <c r="R29" s="104"/>
+      <c r="S29" s="104"/>
+      <c r="T29" s="104"/>
+      <c r="U29" s="104"/>
     </row>
     <row r="30" spans="1:21" s="6" customFormat="1" ht="15.6">
       <c r="A30" s="7">
@@ -2853,12 +2857,12 @@
       <c r="K30" s="50"/>
       <c r="L30" s="7"/>
       <c r="M30" s="7"/>
-      <c r="P30" s="94"/>
-      <c r="Q30" s="94"/>
-      <c r="R30" s="94"/>
-      <c r="S30" s="94"/>
-      <c r="T30" s="94"/>
-      <c r="U30" s="94"/>
+      <c r="P30" s="104"/>
+      <c r="Q30" s="104"/>
+      <c r="R30" s="104"/>
+      <c r="S30" s="104"/>
+      <c r="T30" s="104"/>
+      <c r="U30" s="104"/>
     </row>
     <row r="31" spans="1:21" s="6" customFormat="1" ht="15.6">
       <c r="A31" s="7">
@@ -2890,12 +2894,12 @@
       <c r="K31" s="50"/>
       <c r="L31" s="7"/>
       <c r="M31" s="7"/>
-      <c r="P31" s="79"/>
-      <c r="Q31" s="79"/>
-      <c r="R31" s="79"/>
-      <c r="S31" s="79"/>
-      <c r="T31" s="79"/>
-      <c r="U31" s="79"/>
+      <c r="P31" s="105"/>
+      <c r="Q31" s="105"/>
+      <c r="R31" s="105"/>
+      <c r="S31" s="105"/>
+      <c r="T31" s="105"/>
+      <c r="U31" s="105"/>
     </row>
     <row r="32" spans="1:21" s="6" customFormat="1" ht="15.6">
       <c r="A32" s="7">
@@ -2908,7 +2912,7 @@
         <v>18</v>
       </c>
       <c r="D32" s="50">
-        <v>1582</v>
+        <v>1650</v>
       </c>
       <c r="E32" s="50">
         <v>450</v>
@@ -2927,12 +2931,12 @@
       <c r="K32" s="50"/>
       <c r="L32" s="7"/>
       <c r="M32" s="7"/>
-      <c r="P32" s="79"/>
-      <c r="Q32" s="79"/>
-      <c r="R32" s="79"/>
-      <c r="S32" s="79"/>
-      <c r="T32" s="79"/>
-      <c r="U32" s="79"/>
+      <c r="P32" s="105"/>
+      <c r="Q32" s="105"/>
+      <c r="R32" s="105"/>
+      <c r="S32" s="105"/>
+      <c r="T32" s="105"/>
+      <c r="U32" s="105"/>
     </row>
     <row r="33" spans="1:21" s="6" customFormat="1" ht="15.6">
       <c r="A33" s="7">
@@ -2964,12 +2968,12 @@
       <c r="K33" s="50"/>
       <c r="L33" s="7"/>
       <c r="M33" s="7"/>
-      <c r="P33" s="79"/>
-      <c r="Q33" s="79"/>
-      <c r="R33" s="79"/>
-      <c r="S33" s="79"/>
-      <c r="T33" s="79"/>
-      <c r="U33" s="79"/>
+      <c r="P33" s="105"/>
+      <c r="Q33" s="105"/>
+      <c r="R33" s="105"/>
+      <c r="S33" s="105"/>
+      <c r="T33" s="105"/>
+      <c r="U33" s="105"/>
     </row>
     <row r="34" spans="1:21" s="6" customFormat="1" ht="15.6">
       <c r="A34" s="7">
@@ -3005,14 +3009,14 @@
       </c>
       <c r="L34" s="7"/>
       <c r="M34" s="7"/>
-      <c r="P34" s="80" t="s">
+      <c r="P34" s="106" t="s">
         <v>42</v>
       </c>
-      <c r="Q34" s="80"/>
-      <c r="R34" s="80"/>
-      <c r="S34" s="80"/>
-      <c r="T34" s="80"/>
-      <c r="U34" s="80"/>
+      <c r="Q34" s="106"/>
+      <c r="R34" s="106"/>
+      <c r="S34" s="106"/>
+      <c r="T34" s="106"/>
+      <c r="U34" s="106"/>
     </row>
     <row r="35" spans="1:21" s="6" customFormat="1" ht="15.6">
       <c r="A35" s="7">
@@ -3025,10 +3029,10 @@
         <v>18</v>
       </c>
       <c r="D35" s="50">
-        <v>1642</v>
+        <v>1525</v>
       </c>
       <c r="E35" s="50">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="F35" s="50">
         <v>2</v>
@@ -3044,12 +3048,12 @@
       <c r="K35" s="50"/>
       <c r="L35" s="47"/>
       <c r="M35" s="7"/>
-      <c r="P35" s="80"/>
-      <c r="Q35" s="80"/>
-      <c r="R35" s="80"/>
-      <c r="S35" s="80"/>
-      <c r="T35" s="80"/>
-      <c r="U35" s="80"/>
+      <c r="P35" s="106"/>
+      <c r="Q35" s="106"/>
+      <c r="R35" s="106"/>
+      <c r="S35" s="106"/>
+      <c r="T35" s="106"/>
+      <c r="U35" s="106"/>
     </row>
     <row r="36" spans="1:21" s="6" customFormat="1" ht="15.6">
       <c r="A36" s="7">
@@ -3083,12 +3087,12 @@
       <c r="K36" s="50"/>
       <c r="L36" s="7"/>
       <c r="M36" s="7"/>
-      <c r="P36" s="80"/>
-      <c r="Q36" s="80"/>
-      <c r="R36" s="80"/>
-      <c r="S36" s="80"/>
-      <c r="T36" s="80"/>
-      <c r="U36" s="80"/>
+      <c r="P36" s="106"/>
+      <c r="Q36" s="106"/>
+      <c r="R36" s="106"/>
+      <c r="S36" s="106"/>
+      <c r="T36" s="106"/>
+      <c r="U36" s="106"/>
     </row>
     <row r="37" spans="1:21" s="6" customFormat="1" ht="15.6">
       <c r="A37" s="7">
@@ -3120,14 +3124,14 @@
       <c r="K37" s="50"/>
       <c r="L37" s="7"/>
       <c r="M37" s="7"/>
-      <c r="P37" s="80"/>
-      <c r="Q37" s="80"/>
-      <c r="R37" s="80"/>
-      <c r="S37" s="80"/>
-      <c r="T37" s="80"/>
-      <c r="U37" s="80"/>
-    </row>
-    <row r="38" spans="1:21" s="114" customFormat="1" ht="40.200000000000003" customHeight="1" thickBot="1">
+      <c r="P37" s="106"/>
+      <c r="Q37" s="106"/>
+      <c r="R37" s="106"/>
+      <c r="S37" s="106"/>
+      <c r="T37" s="106"/>
+      <c r="U37" s="106"/>
+    </row>
+    <row r="38" spans="1:21" s="6" customFormat="1" ht="15.6">
       <c r="A38" s="7">
         <v>22</v>
       </c>
@@ -3137,38 +3141,32 @@
       <c r="C38" s="7">
         <v>18</v>
       </c>
-      <c r="D38" s="117">
-        <v>854</v>
-      </c>
-      <c r="E38" s="117">
-        <v>400</v>
-      </c>
-      <c r="F38" s="117">
+      <c r="D38" s="50">
+        <v>495</v>
+      </c>
+      <c r="E38" s="50">
+        <v>100</v>
+      </c>
+      <c r="F38" s="50">
         <v>2</v>
       </c>
       <c r="G38" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="H38" s="117">
-        <v>1</v>
-      </c>
-      <c r="I38" s="117"/>
-      <c r="J38" s="117">
-        <v>1</v>
-      </c>
-      <c r="K38" s="117">
-        <v>1</v>
-      </c>
-      <c r="L38" s="54"/>
-      <c r="M38" s="54"/>
-      <c r="P38" s="115"/>
-      <c r="Q38" s="115"/>
-      <c r="R38" s="115"/>
-      <c r="S38" s="115"/>
-      <c r="T38" s="116"/>
-      <c r="U38" s="116"/>
-    </row>
-    <row r="39" spans="1:21" s="6" customFormat="1" ht="16.2" customHeight="1">
+      <c r="H38" s="50"/>
+      <c r="I38" s="50"/>
+      <c r="J38" s="50"/>
+      <c r="K38" s="50"/>
+      <c r="L38" s="7"/>
+      <c r="M38" s="7"/>
+      <c r="P38" s="121"/>
+      <c r="Q38" s="121"/>
+      <c r="R38" s="121"/>
+      <c r="S38" s="121"/>
+      <c r="T38" s="121"/>
+      <c r="U38" s="121"/>
+    </row>
+    <row r="39" spans="1:21" s="67" customFormat="1" ht="40.200000000000003" customHeight="1" thickBot="1">
       <c r="A39" s="7">
         <v>23</v>
       </c>
@@ -3178,36 +3176,38 @@
       <c r="C39" s="7">
         <v>18</v>
       </c>
-      <c r="D39" s="50">
-        <v>1236</v>
-      </c>
-      <c r="E39" s="50">
+      <c r="D39" s="70">
+        <v>854</v>
+      </c>
+      <c r="E39" s="70">
         <v>400</v>
       </c>
-      <c r="F39" s="50">
-        <v>3</v>
+      <c r="F39" s="70">
+        <v>2</v>
       </c>
       <c r="G39" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="H39" s="50">
+      <c r="H39" s="70">
         <v>1</v>
       </c>
-      <c r="I39" s="50"/>
-      <c r="J39" s="50"/>
-      <c r="K39" s="50"/>
-      <c r="L39" s="7"/>
-      <c r="M39" s="47"/>
-      <c r="P39" s="67" t="s">
-        <v>27</v>
-      </c>
+      <c r="I39" s="70"/>
+      <c r="J39" s="70">
+        <v>1</v>
+      </c>
+      <c r="K39" s="70">
+        <v>1</v>
+      </c>
+      <c r="L39" s="54"/>
+      <c r="M39" s="54"/>
+      <c r="P39" s="68"/>
       <c r="Q39" s="68"/>
       <c r="R39" s="68"/>
       <c r="S39" s="68"/>
-      <c r="T39" s="68"/>
+      <c r="T39" s="69"/>
       <c r="U39" s="69"/>
     </row>
-    <row r="40" spans="1:21" s="6" customFormat="1" ht="15.6">
+    <row r="40" spans="1:21" s="6" customFormat="1" ht="16.2" customHeight="1">
       <c r="A40" s="7">
         <v>24</v>
       </c>
@@ -3218,13 +3218,13 @@
         <v>18</v>
       </c>
       <c r="D40" s="50">
-        <v>400</v>
+        <v>1236</v>
       </c>
       <c r="E40" s="50">
         <v>400</v>
       </c>
       <c r="F40" s="50">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G40" s="7" t="s">
         <v>37</v>
@@ -3232,64 +3232,64 @@
       <c r="H40" s="50">
         <v>1</v>
       </c>
-      <c r="I40" s="54"/>
-      <c r="J40" s="54"/>
-      <c r="K40" s="54"/>
+      <c r="I40" s="50"/>
+      <c r="J40" s="50"/>
+      <c r="K40" s="50"/>
       <c r="L40" s="7"/>
-      <c r="M40" s="7"/>
-      <c r="P40" s="70" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q40" s="71"/>
-      <c r="R40" s="71" t="s">
-        <v>29</v>
-      </c>
-      <c r="S40" s="71"/>
-      <c r="T40" s="71"/>
-      <c r="U40" s="81" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="41" spans="1:21" s="6" customFormat="1" ht="28.8" customHeight="1">
+      <c r="M40" s="47"/>
+      <c r="P40" s="107" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q40" s="108"/>
+      <c r="R40" s="108"/>
+      <c r="S40" s="108"/>
+      <c r="T40" s="108"/>
+      <c r="U40" s="109"/>
+    </row>
+    <row r="41" spans="1:21" s="6" customFormat="1" ht="15.6">
       <c r="A41" s="7">
         <v>25</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="C41" s="7">
-        <v>3</v>
-      </c>
-      <c r="D41" s="117">
-        <v>1105</v>
-      </c>
-      <c r="E41" s="117">
-        <v>500</v>
-      </c>
-      <c r="F41" s="117">
-        <v>2</v>
+        <v>18</v>
+      </c>
+      <c r="D41" s="50">
+        <v>400</v>
+      </c>
+      <c r="E41" s="50">
+        <v>400</v>
+      </c>
+      <c r="F41" s="50">
+        <v>4</v>
       </c>
       <c r="G41" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="H41" s="54"/>
+      <c r="H41" s="50">
+        <v>1</v>
+      </c>
       <c r="I41" s="54"/>
       <c r="J41" s="54"/>
       <c r="K41" s="54"/>
       <c r="L41" s="7"/>
       <c r="M41" s="7"/>
-      <c r="P41" s="75" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q41" s="76"/>
-      <c r="R41" s="76" t="s">
-        <v>32</v>
-      </c>
-      <c r="S41" s="76"/>
-      <c r="T41" s="76"/>
-      <c r="U41" s="81"/>
-    </row>
-    <row r="42" spans="1:21" s="6" customFormat="1" ht="16.2" thickBot="1">
+      <c r="P41" s="110" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q41" s="111"/>
+      <c r="R41" s="111" t="s">
+        <v>29</v>
+      </c>
+      <c r="S41" s="111"/>
+      <c r="T41" s="111"/>
+      <c r="U41" s="112" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" s="6" customFormat="1" ht="28.8" customHeight="1">
       <c r="A42" s="7">
         <v>26</v>
       </c>
@@ -3299,16 +3299,16 @@
       <c r="C42" s="7">
         <v>3</v>
       </c>
-      <c r="D42" s="50">
-        <v>550</v>
-      </c>
-      <c r="E42" s="50">
-        <v>540</v>
-      </c>
-      <c r="F42" s="50">
-        <v>6</v>
-      </c>
-      <c r="G42" s="49" t="s">
+      <c r="D42" s="70">
+        <v>1105</v>
+      </c>
+      <c r="E42" s="70">
+        <v>500</v>
+      </c>
+      <c r="F42" s="70">
+        <v>2</v>
+      </c>
+      <c r="G42" s="7" t="s">
         <v>37</v>
       </c>
       <c r="H42" s="54"/>
@@ -3317,18 +3317,18 @@
       <c r="K42" s="54"/>
       <c r="L42" s="7"/>
       <c r="M42" s="7"/>
-      <c r="P42" s="77" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q42" s="78"/>
-      <c r="R42" s="78" t="s">
-        <v>34</v>
-      </c>
-      <c r="S42" s="78"/>
-      <c r="T42" s="78"/>
-      <c r="U42" s="82"/>
-    </row>
-    <row r="43" spans="1:21" s="6" customFormat="1" ht="16.2" customHeight="1">
+      <c r="P42" s="114" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q42" s="115"/>
+      <c r="R42" s="115" t="s">
+        <v>32</v>
+      </c>
+      <c r="S42" s="115"/>
+      <c r="T42" s="115"/>
+      <c r="U42" s="112"/>
+    </row>
+    <row r="43" spans="1:21" s="6" customFormat="1" ht="16.2" thickBot="1">
       <c r="A43" s="7">
         <v>27</v>
       </c>
@@ -3339,31 +3339,35 @@
         <v>3</v>
       </c>
       <c r="D43" s="50">
-        <v>1200</v>
+        <v>550</v>
       </c>
       <c r="E43" s="50">
-        <v>520</v>
+        <v>538</v>
       </c>
       <c r="F43" s="50">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G43" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="H43" s="50"/>
-      <c r="I43" s="50"/>
-      <c r="J43" s="50"/>
-      <c r="K43" s="50"/>
-      <c r="L43" s="47"/>
+      <c r="H43" s="54"/>
+      <c r="I43" s="54"/>
+      <c r="J43" s="54"/>
+      <c r="K43" s="54"/>
+      <c r="L43" s="7"/>
       <c r="M43" s="7"/>
-      <c r="P43" s="9"/>
-      <c r="Q43" s="9"/>
-      <c r="R43" s="9"/>
-      <c r="S43" s="9"/>
-      <c r="T43" s="9"/>
-      <c r="U43" s="9"/>
-    </row>
-    <row r="44" spans="1:21" s="6" customFormat="1" ht="15.6">
+      <c r="P43" s="116" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q43" s="117"/>
+      <c r="R43" s="117" t="s">
+        <v>34</v>
+      </c>
+      <c r="S43" s="117"/>
+      <c r="T43" s="117"/>
+      <c r="U43" s="113"/>
+    </row>
+    <row r="44" spans="1:21" s="6" customFormat="1" ht="16.2" customHeight="1">
       <c r="A44" s="7">
         <v>28</v>
       </c>
@@ -3374,25 +3378,31 @@
         <v>3</v>
       </c>
       <c r="D44" s="50">
-        <v>424</v>
+        <v>1200</v>
       </c>
       <c r="E44" s="50">
-        <v>853</v>
+        <v>520</v>
       </c>
       <c r="F44" s="50">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G44" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="H44" s="54"/>
-      <c r="I44" s="54"/>
-      <c r="J44" s="54"/>
-      <c r="K44" s="54"/>
-      <c r="L44" s="7"/>
+      <c r="H44" s="50"/>
+      <c r="I44" s="50"/>
+      <c r="J44" s="50"/>
+      <c r="K44" s="50"/>
+      <c r="L44" s="47"/>
       <c r="M44" s="7"/>
-    </row>
-    <row r="45" spans="1:21" s="6" customFormat="1" ht="16.2" thickBot="1">
+      <c r="P44" s="9"/>
+      <c r="Q44" s="9"/>
+      <c r="R44" s="9"/>
+      <c r="S44" s="9"/>
+      <c r="T44" s="9"/>
+      <c r="U44" s="9"/>
+    </row>
+    <row r="45" spans="1:21" s="6" customFormat="1" ht="15.6">
       <c r="A45" s="7">
         <v>29</v>
       </c>
@@ -3403,13 +3413,13 @@
         <v>3</v>
       </c>
       <c r="D45" s="50">
-        <v>794</v>
+        <v>424</v>
       </c>
       <c r="E45" s="50">
-        <v>599</v>
+        <v>853</v>
       </c>
       <c r="F45" s="50">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G45" s="49" t="s">
         <v>37</v>
@@ -3420,114 +3430,149 @@
       <c r="K45" s="54"/>
       <c r="L45" s="7"/>
       <c r="M45" s="7"/>
-      <c r="P45" s="118"/>
-      <c r="Q45" s="119"/>
-      <c r="R45" s="119"/>
-      <c r="S45" s="119"/>
-      <c r="T45" s="119"/>
-      <c r="U45" s="120"/>
-    </row>
-    <row r="46" spans="1:21" s="6" customFormat="1" ht="15.6">
-      <c r="A46" s="7"/>
-      <c r="B46" s="7"/>
-      <c r="C46" s="7"/>
-      <c r="D46" s="50"/>
-      <c r="E46" s="50"/>
-      <c r="F46" s="50"/>
-      <c r="G46" s="49"/>
+    </row>
+    <row r="46" spans="1:21" s="6" customFormat="1" ht="16.2" thickBot="1">
+      <c r="A46" s="7">
+        <v>30</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C46" s="7">
+        <v>3</v>
+      </c>
+      <c r="D46" s="50">
+        <v>794</v>
+      </c>
+      <c r="E46" s="50">
+        <v>599</v>
+      </c>
+      <c r="F46" s="50">
+        <v>2</v>
+      </c>
+      <c r="G46" s="49" t="s">
+        <v>37</v>
+      </c>
       <c r="H46" s="54"/>
       <c r="I46" s="54"/>
       <c r="J46" s="54"/>
       <c r="K46" s="54"/>
       <c r="L46" s="7"/>
       <c r="M46" s="7"/>
-      <c r="P46" s="67" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q46" s="68"/>
-      <c r="R46" s="68"/>
-      <c r="S46" s="68"/>
-      <c r="T46" s="68"/>
-      <c r="U46" s="69"/>
+      <c r="P46" s="71"/>
+      <c r="Q46" s="72"/>
+      <c r="R46" s="72"/>
+      <c r="S46" s="72"/>
+      <c r="T46" s="72"/>
+      <c r="U46" s="73"/>
     </row>
     <row r="47" spans="1:21" s="6" customFormat="1" ht="15.6">
-      <c r="A47" s="7"/>
-      <c r="B47" s="7"/>
-      <c r="C47" s="7"/>
-      <c r="D47" s="50"/>
-      <c r="E47" s="50"/>
-      <c r="F47" s="50"/>
-      <c r="G47" s="49"/>
+      <c r="A47" s="7">
+        <v>31</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C47" s="7">
+        <v>3</v>
+      </c>
+      <c r="D47" s="50">
+        <v>900</v>
+      </c>
+      <c r="E47" s="50">
+        <v>700</v>
+      </c>
+      <c r="F47" s="50">
+        <v>2</v>
+      </c>
+      <c r="G47" s="49" t="s">
+        <v>37</v>
+      </c>
       <c r="H47" s="54"/>
       <c r="I47" s="54"/>
       <c r="J47" s="54"/>
       <c r="K47" s="54"/>
       <c r="L47" s="7"/>
       <c r="M47" s="7"/>
-      <c r="P47" s="70" t="s">
+      <c r="P47" s="107" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q47" s="108"/>
+      <c r="R47" s="108"/>
+      <c r="S47" s="108"/>
+      <c r="T47" s="108"/>
+      <c r="U47" s="109"/>
+    </row>
+    <row r="48" spans="1:21" s="6" customFormat="1" ht="15.6">
+      <c r="A48" s="7"/>
+      <c r="B48" s="7"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="50"/>
+      <c r="E48" s="50"/>
+      <c r="F48" s="50"/>
+      <c r="G48" s="49"/>
+      <c r="H48" s="54"/>
+      <c r="I48" s="54"/>
+      <c r="J48" s="54"/>
+      <c r="K48" s="54"/>
+      <c r="L48" s="7"/>
+      <c r="M48" s="7"/>
+      <c r="P48" s="110" t="s">
         <v>28</v>
       </c>
-      <c r="Q47" s="71"/>
-      <c r="R47" s="71" t="s">
+      <c r="Q48" s="111"/>
+      <c r="R48" s="111" t="s">
         <v>36</v>
       </c>
-      <c r="S47" s="71"/>
-      <c r="T47" s="71"/>
-      <c r="U47" s="72" t="s">
+      <c r="S48" s="111"/>
+      <c r="T48" s="111"/>
+      <c r="U48" s="118" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="48" spans="1:21" ht="12.75" customHeight="1">
-      <c r="A48" s="59" t="s">
+    <row r="49" spans="1:21" ht="12.75" customHeight="1">
+      <c r="A49" s="59" t="s">
         <v>49</v>
       </c>
-      <c r="B48" s="51"/>
-      <c r="C48" s="51"/>
-      <c r="D48" s="60"/>
-      <c r="E48" s="60"/>
-      <c r="F48" s="60">
-        <f>SUM(F17:F47)</f>
-        <v>107</v>
-      </c>
-      <c r="G48" s="51"/>
-      <c r="H48" s="61"/>
-      <c r="I48" s="61"/>
-      <c r="J48" s="61"/>
-      <c r="K48" s="61"/>
-      <c r="L48" s="51"/>
-      <c r="M48" s="51"/>
-      <c r="P48" s="75" t="s">
+      <c r="B49" s="51"/>
+      <c r="C49" s="51"/>
+      <c r="D49" s="60"/>
+      <c r="E49" s="60"/>
+      <c r="F49" s="60">
+        <f>SUM(F17:F48)</f>
+        <v>111</v>
+      </c>
+      <c r="G49" s="51"/>
+      <c r="H49" s="61"/>
+      <c r="I49" s="61"/>
+      <c r="J49" s="61"/>
+      <c r="K49" s="61"/>
+      <c r="L49" s="51"/>
+      <c r="M49" s="51"/>
+      <c r="P49" s="114" t="s">
         <v>31</v>
       </c>
-      <c r="Q48" s="76"/>
-      <c r="R48" s="76" t="s">
+      <c r="Q49" s="115"/>
+      <c r="R49" s="115" t="s">
         <v>32</v>
       </c>
-      <c r="S48" s="76"/>
-      <c r="T48" s="76"/>
-      <c r="U48" s="73"/>
-    </row>
-    <row r="49" spans="16:21" ht="12.75" customHeight="1" thickBot="1">
-      <c r="P49" s="77" t="s">
+      <c r="S49" s="115"/>
+      <c r="T49" s="115"/>
+      <c r="U49" s="119"/>
+    </row>
+    <row r="50" spans="1:21" ht="12.75" customHeight="1" thickBot="1">
+      <c r="P50" s="116" t="s">
         <v>33</v>
       </c>
-      <c r="Q49" s="78"/>
-      <c r="R49" s="78" t="s">
+      <c r="Q50" s="117"/>
+      <c r="R50" s="117" t="s">
         <v>34</v>
       </c>
-      <c r="S49" s="78"/>
-      <c r="T49" s="78"/>
-      <c r="U49" s="74"/>
-    </row>
-    <row r="50" spans="16:21" ht="12.75" customHeight="1">
-      <c r="P50" s="10"/>
-      <c r="Q50" s="10"/>
-      <c r="R50" s="10"/>
-      <c r="S50" s="10"/>
-      <c r="T50" s="10"/>
-      <c r="U50" s="10"/>
-    </row>
-    <row r="51" spans="16:21" ht="12.75" customHeight="1">
+      <c r="S50" s="117"/>
+      <c r="T50" s="117"/>
+      <c r="U50" s="120"/>
+    </row>
+    <row r="51" spans="1:21" ht="12.75" customHeight="1">
       <c r="P51" s="10"/>
       <c r="Q51" s="10"/>
       <c r="R51" s="10"/>
@@ -3535,7 +3580,7 @@
       <c r="T51" s="10"/>
       <c r="U51" s="10"/>
     </row>
-    <row r="52" spans="16:21" ht="12.75" customHeight="1">
+    <row r="52" spans="1:21" ht="12.75" customHeight="1">
       <c r="P52" s="10"/>
       <c r="Q52" s="10"/>
       <c r="R52" s="10"/>
@@ -3543,7 +3588,7 @@
       <c r="T52" s="10"/>
       <c r="U52" s="10"/>
     </row>
-    <row r="53" spans="16:21" ht="12.75" customHeight="1">
+    <row r="53" spans="1:21" ht="12.75" customHeight="1">
       <c r="P53" s="10"/>
       <c r="Q53" s="10"/>
       <c r="R53" s="10"/>
@@ -3551,7 +3596,7 @@
       <c r="T53" s="10"/>
       <c r="U53" s="10"/>
     </row>
-    <row r="54" spans="16:21" ht="12.75" customHeight="1">
+    <row r="54" spans="1:21" ht="12.75" customHeight="1">
       <c r="P54" s="10"/>
       <c r="Q54" s="10"/>
       <c r="R54" s="10"/>
@@ -3559,7 +3604,7 @@
       <c r="T54" s="10"/>
       <c r="U54" s="10"/>
     </row>
-    <row r="55" spans="16:21" ht="12.75" customHeight="1">
+    <row r="55" spans="1:21" ht="12.75" customHeight="1">
       <c r="P55" s="10"/>
       <c r="Q55" s="10"/>
       <c r="R55" s="10"/>
@@ -3567,7 +3612,7 @@
       <c r="T55" s="10"/>
       <c r="U55" s="10"/>
     </row>
-    <row r="56" spans="16:21" ht="12.75" customHeight="1">
+    <row r="56" spans="1:21" ht="12.75" customHeight="1">
       <c r="P56" s="10"/>
       <c r="Q56" s="10"/>
       <c r="R56" s="10"/>
@@ -3575,7 +3620,7 @@
       <c r="T56" s="10"/>
       <c r="U56" s="10"/>
     </row>
-    <row r="57" spans="16:21" ht="12.75" customHeight="1">
+    <row r="57" spans="1:21" ht="12.75" customHeight="1">
       <c r="P57" s="10"/>
       <c r="Q57" s="10"/>
       <c r="R57" s="10"/>
@@ -3583,7 +3628,7 @@
       <c r="T57" s="10"/>
       <c r="U57" s="10"/>
     </row>
-    <row r="58" spans="16:21" ht="12.75" customHeight="1">
+    <row r="58" spans="1:21" ht="12.75" customHeight="1">
       <c r="P58" s="10"/>
       <c r="Q58" s="10"/>
       <c r="R58" s="10"/>
@@ -3591,7 +3636,7 @@
       <c r="T58" s="10"/>
       <c r="U58" s="10"/>
     </row>
-    <row r="59" spans="16:21" ht="12.75" customHeight="1">
+    <row r="59" spans="1:21" ht="12.75" customHeight="1">
       <c r="P59" s="10"/>
       <c r="Q59" s="10"/>
       <c r="R59" s="10"/>
@@ -3599,7 +3644,7 @@
       <c r="T59" s="10"/>
       <c r="U59" s="10"/>
     </row>
-    <row r="60" spans="16:21" ht="12.75" customHeight="1">
+    <row r="60" spans="1:21" ht="12.75" customHeight="1">
       <c r="P60" s="10"/>
       <c r="Q60" s="10"/>
       <c r="R60" s="10"/>
@@ -3607,7 +3652,7 @@
       <c r="T60" s="10"/>
       <c r="U60" s="10"/>
     </row>
-    <row r="61" spans="16:21" ht="12.75" customHeight="1">
+    <row r="61" spans="1:21" ht="12.75" customHeight="1">
       <c r="P61" s="10"/>
       <c r="Q61" s="10"/>
       <c r="R61" s="10"/>
@@ -3615,7 +3660,7 @@
       <c r="T61" s="10"/>
       <c r="U61" s="10"/>
     </row>
-    <row r="62" spans="16:21" ht="12.75" customHeight="1">
+    <row r="62" spans="1:21" ht="12.75" customHeight="1">
       <c r="P62" s="10"/>
       <c r="Q62" s="10"/>
       <c r="R62" s="10"/>
@@ -3623,7 +3668,7 @@
       <c r="T62" s="10"/>
       <c r="U62" s="10"/>
     </row>
-    <row r="63" spans="16:21" ht="12.75" customHeight="1">
+    <row r="63" spans="1:21" ht="12.75" customHeight="1">
       <c r="P63" s="10"/>
       <c r="Q63" s="10"/>
       <c r="R63" s="10"/>
@@ -3631,7 +3676,7 @@
       <c r="T63" s="10"/>
       <c r="U63" s="10"/>
     </row>
-    <row r="64" spans="16:21" ht="12.75" customHeight="1">
+    <row r="64" spans="1:21" ht="12.75" customHeight="1">
       <c r="P64" s="10"/>
       <c r="Q64" s="10"/>
       <c r="R64" s="10"/>
@@ -3704,27 +3749,27 @@
       <c r="U72" s="10"/>
     </row>
     <row r="73" spans="16:21" ht="12.75" customHeight="1">
-      <c r="P73" s="11"/>
-      <c r="Q73" s="12"/>
-      <c r="R73" s="12"/>
-      <c r="S73" s="12"/>
-      <c r="T73" s="12"/>
-      <c r="U73" s="11"/>
+      <c r="P73" s="10"/>
+      <c r="Q73" s="10"/>
+      <c r="R73" s="10"/>
+      <c r="S73" s="10"/>
+      <c r="T73" s="10"/>
+      <c r="U73" s="10"/>
     </row>
     <row r="74" spans="16:21" ht="12.75" customHeight="1">
       <c r="P74" s="11"/>
-      <c r="Q74" s="13"/>
-      <c r="R74" s="13"/>
-      <c r="S74" s="14"/>
-      <c r="T74" s="14"/>
+      <c r="Q74" s="12"/>
+      <c r="R74" s="12"/>
+      <c r="S74" s="12"/>
+      <c r="T74" s="12"/>
       <c r="U74" s="11"/>
     </row>
     <row r="75" spans="16:21" ht="12.75" customHeight="1">
       <c r="P75" s="11"/>
-      <c r="Q75" s="11"/>
-      <c r="R75" s="11"/>
-      <c r="S75" s="11"/>
-      <c r="T75" s="11"/>
+      <c r="Q75" s="13"/>
+      <c r="R75" s="13"/>
+      <c r="S75" s="14"/>
+      <c r="T75" s="14"/>
       <c r="U75" s="11"/>
     </row>
     <row r="76" spans="16:21" ht="12.75" customHeight="1">
@@ -3744,12 +3789,12 @@
       <c r="U77" s="11"/>
     </row>
     <row r="78" spans="16:21" ht="12.75" customHeight="1">
-      <c r="P78" s="15"/>
-      <c r="Q78" s="15"/>
-      <c r="R78" s="15"/>
-      <c r="S78" s="15"/>
-      <c r="T78" s="15"/>
-      <c r="U78" s="15"/>
+      <c r="P78" s="11"/>
+      <c r="Q78" s="11"/>
+      <c r="R78" s="11"/>
+      <c r="S78" s="11"/>
+      <c r="T78" s="11"/>
+      <c r="U78" s="11"/>
     </row>
     <row r="79" spans="16:21" ht="12.75" customHeight="1">
       <c r="P79" s="15"/>
@@ -3776,36 +3821,36 @@
       <c r="U81" s="15"/>
     </row>
     <row r="82" spans="16:21" ht="12.75" customHeight="1">
-      <c r="P82" s="16"/>
-      <c r="Q82" s="17"/>
-      <c r="R82" s="17"/>
-      <c r="S82" s="16"/>
-      <c r="T82" s="16"/>
-      <c r="U82" s="16"/>
+      <c r="P82" s="15"/>
+      <c r="Q82" s="15"/>
+      <c r="R82" s="15"/>
+      <c r="S82" s="15"/>
+      <c r="T82" s="15"/>
+      <c r="U82" s="15"/>
     </row>
     <row r="83" spans="16:21" ht="12.75" customHeight="1">
-      <c r="P83" s="18"/>
-      <c r="Q83" s="18"/>
-      <c r="R83" s="18"/>
-      <c r="S83" s="18"/>
-      <c r="T83" s="18"/>
-      <c r="U83" s="18"/>
+      <c r="P83" s="16"/>
+      <c r="Q83" s="17"/>
+      <c r="R83" s="17"/>
+      <c r="S83" s="16"/>
+      <c r="T83" s="16"/>
+      <c r="U83" s="16"/>
     </row>
     <row r="84" spans="16:21" ht="12.75" customHeight="1">
-      <c r="P84" s="19"/>
-      <c r="Q84" s="19"/>
-      <c r="R84" s="19"/>
-      <c r="S84" s="19"/>
-      <c r="T84" s="19"/>
-      <c r="U84" s="19"/>
+      <c r="P84" s="18"/>
+      <c r="Q84" s="18"/>
+      <c r="R84" s="18"/>
+      <c r="S84" s="18"/>
+      <c r="T84" s="18"/>
+      <c r="U84" s="18"/>
     </row>
     <row r="85" spans="16:21" ht="12.75" customHeight="1">
-      <c r="P85" s="20"/>
-      <c r="Q85" s="20"/>
-      <c r="R85" s="20"/>
-      <c r="S85" s="21"/>
-      <c r="T85" s="21"/>
-      <c r="U85" s="21"/>
+      <c r="P85" s="19"/>
+      <c r="Q85" s="19"/>
+      <c r="R85" s="19"/>
+      <c r="S85" s="19"/>
+      <c r="T85" s="19"/>
+      <c r="U85" s="19"/>
     </row>
     <row r="86" spans="16:21" ht="12.75" customHeight="1">
       <c r="P86" s="20"/>
@@ -3832,12 +3877,12 @@
       <c r="U88" s="21"/>
     </row>
     <row r="89" spans="16:21" ht="12.75" customHeight="1">
-      <c r="P89" s="22"/>
-      <c r="Q89" s="22"/>
-      <c r="R89" s="22"/>
-      <c r="S89" s="22"/>
-      <c r="T89" s="22"/>
-      <c r="U89" s="22"/>
+      <c r="P89" s="20"/>
+      <c r="Q89" s="20"/>
+      <c r="R89" s="20"/>
+      <c r="S89" s="21"/>
+      <c r="T89" s="21"/>
+      <c r="U89" s="21"/>
     </row>
     <row r="90" spans="16:21" ht="12.75" customHeight="1">
       <c r="P90" s="22"/>
@@ -3967,8 +4012,13 @@
       <c r="T105" s="22"/>
       <c r="U105" s="22"/>
     </row>
-    <row r="144" spans="16:16" ht="12.75" customHeight="1">
-      <c r="P144" s="22"/>
+    <row r="106" spans="16:21" ht="12.75" customHeight="1">
+      <c r="P106" s="22"/>
+      <c r="Q106" s="22"/>
+      <c r="R106" s="22"/>
+      <c r="S106" s="22"/>
+      <c r="T106" s="22"/>
+      <c r="U106" s="22"/>
     </row>
     <row r="145" spans="16:21" ht="12.75" customHeight="1">
       <c r="P145" s="22"/>
@@ -3977,12 +4027,7 @@
       <c r="P146" s="22"/>
     </row>
     <row r="147" spans="16:21" ht="12.75" customHeight="1">
-      <c r="P147" s="11"/>
-      <c r="Q147" s="11"/>
-      <c r="R147" s="11"/>
-      <c r="S147" s="11"/>
-      <c r="T147" s="11"/>
-      <c r="U147" s="11"/>
+      <c r="P147" s="22"/>
     </row>
     <row r="148" spans="16:21" ht="12.75" customHeight="1">
       <c r="P148" s="11"/>
@@ -4002,10 +4047,10 @@
     </row>
     <row r="150" spans="16:21" ht="12.75" customHeight="1">
       <c r="P150" s="11"/>
-      <c r="Q150" s="23"/>
-      <c r="R150" s="23"/>
-      <c r="S150" s="23"/>
-      <c r="T150" s="23"/>
+      <c r="Q150" s="11"/>
+      <c r="R150" s="11"/>
+      <c r="S150" s="11"/>
+      <c r="T150" s="11"/>
       <c r="U150" s="11"/>
     </row>
     <row r="151" spans="16:21" ht="12.75" customHeight="1">
@@ -4018,18 +4063,18 @@
     </row>
     <row r="152" spans="16:21" ht="12.75" customHeight="1">
       <c r="P152" s="11"/>
-      <c r="Q152" s="13"/>
-      <c r="R152" s="13"/>
-      <c r="S152" s="14"/>
-      <c r="T152" s="14"/>
+      <c r="Q152" s="23"/>
+      <c r="R152" s="23"/>
+      <c r="S152" s="23"/>
+      <c r="T152" s="23"/>
       <c r="U152" s="11"/>
     </row>
     <row r="153" spans="16:21" ht="12.75" customHeight="1">
       <c r="P153" s="11"/>
-      <c r="Q153" s="11"/>
-      <c r="R153" s="11"/>
-      <c r="S153" s="11"/>
-      <c r="T153" s="11"/>
+      <c r="Q153" s="13"/>
+      <c r="R153" s="13"/>
+      <c r="S153" s="14"/>
+      <c r="T153" s="14"/>
       <c r="U153" s="11"/>
     </row>
     <row r="154" spans="16:21" ht="12.75" customHeight="1">
@@ -4049,12 +4094,12 @@
       <c r="U155" s="11"/>
     </row>
     <row r="156" spans="16:21" ht="12.75" customHeight="1">
-      <c r="P156" s="24"/>
-      <c r="Q156" s="24"/>
-      <c r="R156" s="24"/>
-      <c r="S156" s="24"/>
-      <c r="T156" s="24"/>
-      <c r="U156" s="24"/>
+      <c r="P156" s="11"/>
+      <c r="Q156" s="11"/>
+      <c r="R156" s="11"/>
+      <c r="S156" s="11"/>
+      <c r="T156" s="11"/>
+      <c r="U156" s="11"/>
     </row>
     <row r="157" spans="16:21" ht="12.75" customHeight="1">
       <c r="P157" s="24"/>
@@ -4081,36 +4126,36 @@
       <c r="U159" s="24"/>
     </row>
     <row r="160" spans="16:21" ht="12.75" customHeight="1">
-      <c r="P160" s="11"/>
-      <c r="Q160" s="25"/>
-      <c r="R160" s="25"/>
-      <c r="S160" s="11"/>
-      <c r="T160" s="11"/>
-      <c r="U160" s="11"/>
+      <c r="P160" s="24"/>
+      <c r="Q160" s="24"/>
+      <c r="R160" s="24"/>
+      <c r="S160" s="24"/>
+      <c r="T160" s="24"/>
+      <c r="U160" s="24"/>
     </row>
     <row r="161" spans="16:21" ht="12.75" customHeight="1">
-      <c r="P161" s="26"/>
-      <c r="Q161" s="26"/>
-      <c r="R161" s="26"/>
-      <c r="S161" s="26"/>
-      <c r="T161" s="26"/>
-      <c r="U161" s="26"/>
+      <c r="P161" s="11"/>
+      <c r="Q161" s="25"/>
+      <c r="R161" s="25"/>
+      <c r="S161" s="11"/>
+      <c r="T161" s="11"/>
+      <c r="U161" s="11"/>
     </row>
     <row r="162" spans="16:21" ht="12.75" customHeight="1">
-      <c r="P162" s="27"/>
-      <c r="Q162" s="27"/>
-      <c r="R162" s="27"/>
-      <c r="S162" s="27"/>
-      <c r="T162" s="27"/>
-      <c r="U162" s="27"/>
+      <c r="P162" s="26"/>
+      <c r="Q162" s="26"/>
+      <c r="R162" s="26"/>
+      <c r="S162" s="26"/>
+      <c r="T162" s="26"/>
+      <c r="U162" s="26"/>
     </row>
     <row r="163" spans="16:21" ht="12.75" customHeight="1">
-      <c r="P163" s="28"/>
-      <c r="Q163" s="28"/>
-      <c r="R163" s="28"/>
-      <c r="S163" s="29"/>
-      <c r="T163" s="29"/>
-      <c r="U163" s="29"/>
+      <c r="P163" s="27"/>
+      <c r="Q163" s="27"/>
+      <c r="R163" s="27"/>
+      <c r="S163" s="27"/>
+      <c r="T163" s="27"/>
+      <c r="U163" s="27"/>
     </row>
     <row r="164" spans="16:21" ht="12.75" customHeight="1">
       <c r="P164" s="28"/>
@@ -4137,12 +4182,12 @@
       <c r="U166" s="29"/>
     </row>
     <row r="167" spans="16:21" ht="12.75" customHeight="1">
-      <c r="P167" s="11"/>
-      <c r="Q167" s="11"/>
-      <c r="R167" s="11"/>
-      <c r="S167" s="11"/>
-      <c r="T167" s="11"/>
-      <c r="U167" s="11"/>
+      <c r="P167" s="28"/>
+      <c r="Q167" s="28"/>
+      <c r="R167" s="28"/>
+      <c r="S167" s="29"/>
+      <c r="T167" s="29"/>
+      <c r="U167" s="29"/>
     </row>
     <row r="168" spans="16:21" ht="12.75" customHeight="1">
       <c r="P168" s="11"/>
@@ -4161,12 +4206,12 @@
       <c r="U169" s="11"/>
     </row>
     <row r="170" spans="16:21" ht="12.75" customHeight="1">
-      <c r="P170" s="22"/>
-      <c r="Q170" s="22"/>
-      <c r="R170" s="22"/>
-      <c r="S170" s="22"/>
-      <c r="T170" s="22"/>
-      <c r="U170" s="22"/>
+      <c r="P170" s="11"/>
+      <c r="Q170" s="11"/>
+      <c r="R170" s="11"/>
+      <c r="S170" s="11"/>
+      <c r="T170" s="11"/>
+      <c r="U170" s="11"/>
     </row>
     <row r="171" spans="16:21" ht="12.75" customHeight="1">
       <c r="P171" s="22"/>
@@ -4272,8 +4317,13 @@
       <c r="T183" s="22"/>
       <c r="U183" s="22"/>
     </row>
-    <row r="222" spans="16:16" ht="12.75" customHeight="1">
-      <c r="P222" s="22"/>
+    <row r="184" spans="16:21" ht="12.75" customHeight="1">
+      <c r="P184" s="22"/>
+      <c r="Q184" s="22"/>
+      <c r="R184" s="22"/>
+      <c r="S184" s="22"/>
+      <c r="T184" s="22"/>
+      <c r="U184" s="22"/>
     </row>
     <row r="223" spans="16:16" ht="12.75" customHeight="1">
       <c r="P223" s="22"/>
@@ -4281,13 +4331,8 @@
     <row r="224" spans="16:16" ht="12.75" customHeight="1">
       <c r="P224" s="22"/>
     </row>
-    <row r="228" spans="16:21" ht="12.75" customHeight="1">
-      <c r="P228" s="30"/>
-      <c r="Q228" s="31"/>
-      <c r="R228" s="31"/>
-      <c r="S228" s="31"/>
-      <c r="T228" s="31"/>
-      <c r="U228" s="30"/>
+    <row r="225" spans="16:21" ht="12.75" customHeight="1">
+      <c r="P225" s="22"/>
     </row>
     <row r="229" spans="16:21" ht="12.75" customHeight="1">
       <c r="P229" s="30"/>
@@ -4299,18 +4344,18 @@
     </row>
     <row r="230" spans="16:21" ht="12.75" customHeight="1">
       <c r="P230" s="30"/>
-      <c r="Q230" s="32"/>
-      <c r="R230" s="32"/>
-      <c r="S230" s="33"/>
-      <c r="T230" s="33"/>
+      <c r="Q230" s="31"/>
+      <c r="R230" s="31"/>
+      <c r="S230" s="31"/>
+      <c r="T230" s="31"/>
       <c r="U230" s="30"/>
     </row>
     <row r="231" spans="16:21" ht="12.75" customHeight="1">
       <c r="P231" s="30"/>
-      <c r="Q231" s="30"/>
-      <c r="R231" s="30"/>
-      <c r="S231" s="30"/>
-      <c r="T231" s="30"/>
+      <c r="Q231" s="32"/>
+      <c r="R231" s="32"/>
+      <c r="S231" s="33"/>
+      <c r="T231" s="33"/>
       <c r="U231" s="30"/>
     </row>
     <row r="232" spans="16:21" ht="12.75" customHeight="1">
@@ -4330,12 +4375,12 @@
       <c r="U233" s="30"/>
     </row>
     <row r="234" spans="16:21" ht="12.75" customHeight="1">
-      <c r="P234" s="34"/>
-      <c r="Q234" s="34"/>
-      <c r="R234" s="34"/>
-      <c r="S234" s="34"/>
-      <c r="T234" s="34"/>
-      <c r="U234" s="34"/>
+      <c r="P234" s="30"/>
+      <c r="Q234" s="30"/>
+      <c r="R234" s="30"/>
+      <c r="S234" s="30"/>
+      <c r="T234" s="30"/>
+      <c r="U234" s="30"/>
     </row>
     <row r="235" spans="16:21" ht="12.75" customHeight="1">
       <c r="P235" s="34"/>
@@ -4362,36 +4407,36 @@
       <c r="U237" s="34"/>
     </row>
     <row r="238" spans="16:21" ht="12.75" customHeight="1">
-      <c r="P238" s="30"/>
-      <c r="Q238" s="35"/>
-      <c r="R238" s="35"/>
-      <c r="S238" s="30"/>
-      <c r="T238" s="30"/>
-      <c r="U238" s="30"/>
+      <c r="P238" s="34"/>
+      <c r="Q238" s="34"/>
+      <c r="R238" s="34"/>
+      <c r="S238" s="34"/>
+      <c r="T238" s="34"/>
+      <c r="U238" s="34"/>
     </row>
     <row r="239" spans="16:21" ht="12.75" customHeight="1">
-      <c r="P239" s="36"/>
-      <c r="Q239" s="36"/>
-      <c r="R239" s="36"/>
-      <c r="S239" s="36"/>
-      <c r="T239" s="36"/>
-      <c r="U239" s="36"/>
+      <c r="P239" s="30"/>
+      <c r="Q239" s="35"/>
+      <c r="R239" s="35"/>
+      <c r="S239" s="30"/>
+      <c r="T239" s="30"/>
+      <c r="U239" s="30"/>
     </row>
     <row r="240" spans="16:21" ht="12.75" customHeight="1">
-      <c r="P240" s="37"/>
-      <c r="Q240" s="37"/>
-      <c r="R240" s="37"/>
-      <c r="S240" s="37"/>
-      <c r="T240" s="37"/>
-      <c r="U240" s="37"/>
+      <c r="P240" s="36"/>
+      <c r="Q240" s="36"/>
+      <c r="R240" s="36"/>
+      <c r="S240" s="36"/>
+      <c r="T240" s="36"/>
+      <c r="U240" s="36"/>
     </row>
     <row r="241" spans="16:21" ht="12.75" customHeight="1">
-      <c r="P241" s="38"/>
-      <c r="Q241" s="38"/>
-      <c r="R241" s="38"/>
-      <c r="S241" s="39"/>
-      <c r="T241" s="39"/>
-      <c r="U241" s="39"/>
+      <c r="P241" s="37"/>
+      <c r="Q241" s="37"/>
+      <c r="R241" s="37"/>
+      <c r="S241" s="37"/>
+      <c r="T241" s="37"/>
+      <c r="U241" s="37"/>
     </row>
     <row r="242" spans="16:21" ht="12.75" customHeight="1">
       <c r="P242" s="38"/>
@@ -4418,12 +4463,12 @@
       <c r="U244" s="39"/>
     </row>
     <row r="245" spans="16:21" ht="12.75" customHeight="1">
-      <c r="P245" s="30"/>
-      <c r="Q245" s="30"/>
-      <c r="R245" s="30"/>
-      <c r="S245" s="30"/>
-      <c r="T245" s="30"/>
-      <c r="U245" s="30"/>
+      <c r="P245" s="38"/>
+      <c r="Q245" s="38"/>
+      <c r="R245" s="38"/>
+      <c r="S245" s="39"/>
+      <c r="T245" s="39"/>
+      <c r="U245" s="39"/>
     </row>
     <row r="246" spans="16:21" ht="12.75" customHeight="1">
       <c r="P246" s="30"/>
@@ -4482,12 +4527,12 @@
       <c r="U252" s="30"/>
     </row>
     <row r="253" spans="16:21" ht="12.75" customHeight="1">
-      <c r="P253" s="16"/>
-      <c r="Q253" s="16"/>
-      <c r="R253" s="16"/>
-      <c r="S253" s="16"/>
-      <c r="T253" s="16"/>
-      <c r="U253" s="16"/>
+      <c r="P253" s="30"/>
+      <c r="Q253" s="30"/>
+      <c r="R253" s="30"/>
+      <c r="S253" s="30"/>
+      <c r="T253" s="30"/>
+      <c r="U253" s="30"/>
     </row>
     <row r="254" spans="16:21" ht="12.75" customHeight="1">
       <c r="P254" s="16"/>
@@ -4906,12 +4951,12 @@
       <c r="U305" s="16"/>
     </row>
     <row r="306" spans="16:21" ht="12.75" customHeight="1">
-      <c r="P306" s="30"/>
-      <c r="Q306" s="40"/>
-      <c r="R306" s="40"/>
-      <c r="S306" s="40"/>
-      <c r="T306" s="40"/>
-      <c r="U306" s="30"/>
+      <c r="P306" s="16"/>
+      <c r="Q306" s="16"/>
+      <c r="R306" s="16"/>
+      <c r="S306" s="16"/>
+      <c r="T306" s="16"/>
+      <c r="U306" s="16"/>
     </row>
     <row r="307" spans="16:21" ht="12.75" customHeight="1">
       <c r="P307" s="30"/>
@@ -4923,19 +4968,19 @@
     </row>
     <row r="308" spans="16:21" ht="12.75" customHeight="1">
       <c r="P308" s="30"/>
-      <c r="Q308" s="41"/>
-      <c r="R308" s="41"/>
-      <c r="S308" s="33"/>
-      <c r="T308" s="33"/>
+      <c r="Q308" s="40"/>
+      <c r="R308" s="40"/>
+      <c r="S308" s="40"/>
+      <c r="T308" s="40"/>
       <c r="U308" s="30"/>
     </row>
     <row r="309" spans="16:21" ht="12.75" customHeight="1">
-      <c r="P309" s="11"/>
-      <c r="Q309" s="42"/>
-      <c r="R309" s="42"/>
-      <c r="S309" s="43"/>
-      <c r="T309" s="43"/>
-      <c r="U309" s="11"/>
+      <c r="P309" s="30"/>
+      <c r="Q309" s="41"/>
+      <c r="R309" s="41"/>
+      <c r="S309" s="33"/>
+      <c r="T309" s="33"/>
+      <c r="U309" s="30"/>
     </row>
     <row r="310" spans="16:21" ht="12.75" customHeight="1">
       <c r="P310" s="11"/>
@@ -4947,6 +4992,11 @@
     </row>
     <row r="311" spans="16:21" ht="12.75" customHeight="1">
       <c r="P311" s="11"/>
+      <c r="Q311" s="42"/>
+      <c r="R311" s="42"/>
+      <c r="S311" s="43"/>
+      <c r="T311" s="43"/>
+      <c r="U311" s="11"/>
     </row>
     <row r="312" spans="16:21" ht="12.75" customHeight="1">
       <c r="P312" s="11"/>
@@ -4970,12 +5020,7 @@
       <c r="P318" s="11"/>
     </row>
     <row r="319" spans="16:21" ht="12.75" customHeight="1">
-      <c r="P319" s="44"/>
-      <c r="Q319" s="45"/>
-      <c r="R319" s="45"/>
-      <c r="S319" s="45"/>
-      <c r="T319" s="45"/>
-      <c r="U319" s="45"/>
+      <c r="P319" s="11"/>
     </row>
     <row r="320" spans="16:21" ht="12.75" customHeight="1">
       <c r="P320" s="44"/>
@@ -5026,7 +5071,7 @@
       <c r="U325" s="45"/>
     </row>
     <row r="326" spans="16:21" ht="12.75" customHeight="1">
-      <c r="P326" s="45"/>
+      <c r="P326" s="44"/>
       <c r="Q326" s="45"/>
       <c r="R326" s="45"/>
       <c r="S326" s="45"/>
@@ -5041,54 +5086,62 @@
       <c r="T327" s="45"/>
       <c r="U327" s="45"/>
     </row>
+    <row r="328" spans="16:21" ht="12.75" customHeight="1">
+      <c r="P328" s="45"/>
+      <c r="Q328" s="45"/>
+      <c r="R328" s="45"/>
+      <c r="S328" s="45"/>
+      <c r="T328" s="45"/>
+      <c r="U328" s="45"/>
+    </row>
   </sheetData>
   <mergeCells count="46">
+    <mergeCell ref="P47:U47"/>
+    <mergeCell ref="P48:Q48"/>
+    <mergeCell ref="R48:T48"/>
+    <mergeCell ref="U48:U50"/>
+    <mergeCell ref="P49:Q49"/>
+    <mergeCell ref="R49:T49"/>
+    <mergeCell ref="P50:Q50"/>
+    <mergeCell ref="R50:T50"/>
+    <mergeCell ref="P31:U33"/>
+    <mergeCell ref="P34:U37"/>
+    <mergeCell ref="P40:U40"/>
+    <mergeCell ref="P41:Q41"/>
+    <mergeCell ref="R41:T41"/>
+    <mergeCell ref="U41:U43"/>
+    <mergeCell ref="P42:Q42"/>
+    <mergeCell ref="R42:T42"/>
+    <mergeCell ref="P43:Q43"/>
+    <mergeCell ref="R43:T43"/>
+    <mergeCell ref="P24:R24"/>
+    <mergeCell ref="S24:U24"/>
+    <mergeCell ref="P22:R22"/>
+    <mergeCell ref="S22:U22"/>
+    <mergeCell ref="P26:U30"/>
+    <mergeCell ref="P19:R19"/>
+    <mergeCell ref="S19:U19"/>
+    <mergeCell ref="P20:R20"/>
+    <mergeCell ref="S20:U20"/>
+    <mergeCell ref="P21:R21"/>
+    <mergeCell ref="S21:U21"/>
+    <mergeCell ref="A14:M14"/>
+    <mergeCell ref="A15:M15"/>
+    <mergeCell ref="P17:U17"/>
+    <mergeCell ref="P18:R18"/>
+    <mergeCell ref="S18:U18"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:K13"/>
     <mergeCell ref="B1:K1"/>
     <mergeCell ref="A7:M7"/>
     <mergeCell ref="A8:M8"/>
     <mergeCell ref="B9:K9"/>
     <mergeCell ref="D10:F10"/>
     <mergeCell ref="G10:K10"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:K13"/>
-    <mergeCell ref="A14:M14"/>
-    <mergeCell ref="A15:M15"/>
-    <mergeCell ref="P17:U17"/>
-    <mergeCell ref="P18:R18"/>
-    <mergeCell ref="S18:U18"/>
-    <mergeCell ref="P19:R19"/>
-    <mergeCell ref="S19:U19"/>
-    <mergeCell ref="P20:R20"/>
-    <mergeCell ref="S20:U20"/>
-    <mergeCell ref="P21:R21"/>
-    <mergeCell ref="S21:U21"/>
-    <mergeCell ref="P24:R24"/>
-    <mergeCell ref="S24:U24"/>
-    <mergeCell ref="P22:R22"/>
-    <mergeCell ref="S22:U22"/>
-    <mergeCell ref="P26:U30"/>
-    <mergeCell ref="P31:U33"/>
-    <mergeCell ref="P34:U37"/>
-    <mergeCell ref="P39:U39"/>
-    <mergeCell ref="P40:Q40"/>
-    <mergeCell ref="R40:T40"/>
-    <mergeCell ref="U40:U42"/>
-    <mergeCell ref="P41:Q41"/>
-    <mergeCell ref="R41:T41"/>
-    <mergeCell ref="P42:Q42"/>
-    <mergeCell ref="R42:T42"/>
-    <mergeCell ref="P46:U46"/>
-    <mergeCell ref="P47:Q47"/>
-    <mergeCell ref="R47:T47"/>
-    <mergeCell ref="U47:U49"/>
-    <mergeCell ref="P48:Q48"/>
-    <mergeCell ref="R48:T48"/>
-    <mergeCell ref="P49:Q49"/>
-    <mergeCell ref="R49:T49"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="86" pageOrder="overThenDown" orientation="landscape" r:id="rId1"/>
